--- a/PortfolioOptimum/Акции для анализа.xlsx
+++ b/PortfolioOptimum/Акции для анализа.xlsx
@@ -1,37 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Study\4 year\FinCal\PortfolioOptimum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071E5955-B823-42E2-AF29-407A7A9AFA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>TICKER</t>
+  </si>
+  <si>
+    <t>ЦЕНА</t>
+  </si>
+  <si>
+    <t>КОЛИЧЕСТВО АКЦИЙ</t>
+  </si>
+  <si>
+    <t>ПРИБЫЛЬ</t>
+  </si>
+  <si>
+    <t>ВЫРУЧКА</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
+  </si>
+  <si>
+    <t>FIXP</t>
+  </si>
+  <si>
+    <t>MDMG</t>
+  </si>
+  <si>
+    <t>YNDX</t>
+  </si>
+  <si>
+    <t>MTSS</t>
+  </si>
+  <si>
+    <t>SELG</t>
+  </si>
+  <si>
+    <t>SFIN</t>
+  </si>
+  <si>
+    <t>SMLT</t>
+  </si>
+  <si>
+    <t>HNFG</t>
+  </si>
+  <si>
+    <t>WUSH</t>
+  </si>
+  <si>
+    <t>TGKN</t>
+  </si>
+  <si>
+    <t>ABRD</t>
+  </si>
+  <si>
+    <t>EELT</t>
+  </si>
+  <si>
+    <t>LVHK</t>
+  </si>
+  <si>
+    <t>MGTS</t>
+  </si>
+  <si>
+    <t>TTLK</t>
+  </si>
+  <si>
+    <t>WTCM</t>
+  </si>
+  <si>
+    <t>RGSS</t>
+  </si>
+  <si>
+    <t>KCHE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +138,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,621 +462,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TICKER</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ЦЕНА</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>КОЛИЧЕСТВО АКЦИЙ</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ПРИБЫЛЬ</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ВЫРУЧКА</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FCF</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P/E</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>P/S</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P/FCF</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FIXP</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="C2">
         <v>850000000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>21411000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>277644000000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>24767000000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10.74260893933025</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.8284349742836151</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.286954415149191</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MDMG</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="H2">
+        <v>0.82843497428361512</v>
+      </c>
+      <c r="I2">
+        <v>9.2869544151491912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>730</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>75125010</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4718800000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>25222056000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>6564718000</v>
       </c>
-      <c r="G3" t="n">
-        <v>11.62186515639569</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.174337306205331</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>11.621865156395691</v>
+      </c>
+      <c r="H3">
+        <v>2.1743373062053308</v>
+      </c>
+      <c r="I3">
         <v>8.353939544699406</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>YNDX</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2266.8</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2266.8000000000002</v>
+      </c>
+      <c r="C4">
         <v>326016891</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>47615000000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>521699000000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-10264000000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>15.5206361129644</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1.416554542981298</v>
       </c>
-      <c r="I4" t="n">
-        <v>-72.00069061952456</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MTSS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="I4">
+        <v>-72.000690619524562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>251.3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1998381575</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>33435000000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>541749000000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>78011000000</v>
       </c>
-      <c r="G5" t="n">
-        <v>15.0199877313444</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9269851717262053</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.437467662220713</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SELG</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="G5">
+        <v>15.019987731344401</v>
+      </c>
+      <c r="H5">
+        <v>0.92698517172620531</v>
+      </c>
+      <c r="I5">
+        <v>6.4374676622207128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>57.49</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>992354730</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4143200000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>34721582000</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-3448388000</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>13.76966437239332</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1.643083930556505</v>
       </c>
-      <c r="I6" t="n">
-        <v>-16.54409927992442</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SFIN</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="I6">
+        <v>-16.544099279924421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>569</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>111637791</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6061046000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>23865580000</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-4880689000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>10.48035323919337</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2.661653438927527</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-13.01494585682472</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SMLT</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>3851.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>61579358</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>15283000000</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>172210000000</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-118509000000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>15.51873960197605</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.377230691231636</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>1.3772306912316361</v>
+      </c>
+      <c r="I8">
         <v>-2.001307051253491</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HNFG</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>551.8</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>551.79999999999995</v>
+      </c>
+      <c r="C9">
         <v>36000000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1831799000</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>12432544000</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-266345000</v>
       </c>
-      <c r="G9" t="n">
-        <v>10.84442124927462</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>10.844421249274619</v>
+      </c>
+      <c r="H9">
         <v>1.597806530988348</v>
       </c>
-      <c r="I9" t="n">
-        <v>-74.58296570237849</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>WUSH</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="I9">
+        <v>-74.582965702378488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>201.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>100000000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>830504000</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>6960851000</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-1614087000</v>
       </c>
-      <c r="G10" t="n">
-        <v>24.26237561769721</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.894760999768563</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="G10">
+        <v>24.262375617697209</v>
+      </c>
+      <c r="H10">
+        <v>2.8947609997685628</v>
+      </c>
+      <c r="I10">
         <v>-12.48383761222289</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TGKN</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C11">
         <v>1357945609114</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>564158000</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>14357476000</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>2033328000</v>
       </c>
-      <c r="G11" t="n">
-        <v>27.92155577998078</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>27.921555779980778</v>
+      </c>
+      <c r="H11">
         <v>1.097140546550271</v>
       </c>
-      <c r="I11" t="n">
-        <v>7.746988712948624</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ABRD</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="I11">
+        <v>7.7469887129486237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
         <v>253.4</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>98000184</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1772185000</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>13811219000</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-557694000</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>14.01278457136247</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.798048863434864</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12">
+        <v>1.7980488634348639</v>
+      </c>
+      <c r="I12">
         <v>-44.52844503544955</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EELT</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <v>12.74</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>610000000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>947535000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>7128716000</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-94876000</v>
       </c>
-      <c r="G13" t="n">
-        <v>8.201702311787955</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>8.2017023117879546</v>
+      </c>
+      <c r="H13">
         <v>1.090154243765638</v>
       </c>
-      <c r="I13" t="n">
-        <v>-81.91112610143766</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LVHK</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="I13">
+        <v>-81.911126101437659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
         <v>35.15</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>52940000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>77701000</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1247929000</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>234949000</v>
       </c>
-      <c r="G14" t="n">
-        <v>23.94873939846334</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>23.948739398463339</v>
+      </c>
+      <c r="H14">
         <v>1.491143326262953</v>
       </c>
-      <c r="I14" t="n">
-        <v>7.920191190428561</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MGTS</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="I14">
+        <v>7.9201911904285609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
         <v>1570</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>79708751</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>16465000000</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>42642000000</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>13764000000</v>
       </c>
-      <c r="G15" t="n">
-        <v>7.600530766474339</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.934729587495896</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.092032771723336</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TTLK</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.8245</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="G15">
+        <v>7.6005307664743391</v>
+      </c>
+      <c r="H15">
+        <v>2.9347295874958959</v>
+      </c>
+      <c r="I15">
+        <v>9.0920327717233356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="C16">
         <v>20843976400</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2636667000</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>10330311000</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>2362426000</v>
       </c>
-      <c r="G16" t="n">
-        <v>6.518023907380036</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>6.5180239073800363</v>
+      </c>
+      <c r="H16">
         <v>1.663634186986239</v>
       </c>
-      <c r="I16" t="n">
-        <v>7.274665340544</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>WTCM</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="I16">
+        <v>7.2746653405439998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
         <v>11.92</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1083000000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>673446000</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>6868748000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1649557000</v>
       </c>
-      <c r="G17" t="n">
-        <v>19.16910932725118</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>19.169109327251181</v>
+      </c>
+      <c r="H17">
         <v>1.879434214211964</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>7.825955695983831</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>RGSS</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.2312</v>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="C18">
         <v>489503740915</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4921101000</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>91006145000</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-1433732000</v>
       </c>
-      <c r="G18" t="n">
-        <v>22.99754971490079</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.24357827594552</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-78.93613653008232</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>KCHE</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="G18">
+        <v>22.997549714900789</v>
+      </c>
+      <c r="H18">
+        <v>1.2435782759455201</v>
+      </c>
+      <c r="I18">
+        <v>-78.936136530082322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C19">
         <v>48746657782</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1271000000</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>15038000000</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-2328000000</v>
       </c>
-      <c r="G19" t="n">
-        <v>19.4449689185476</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.643473566662721</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="G19">
+        <v>19.444968918547598</v>
+      </c>
+      <c r="H19">
+        <v>1.6434735666627209</v>
+      </c>
+      <c r="I19">
         <v>-10.61621799633763</v>
       </c>
     </row>
